--- a/Excel/Excel northwind analysis.xlsx
+++ b/Excel/Excel northwind analysis.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simaa\OneDrive\Desktop\NorthWind data analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B27E7-779E-4229-8B48-EC3A1408CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE1EC5-CE27-4A2F-A272-DFA4DE7D3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly Sales" sheetId="2" r:id="rId1"/>
-    <sheet name="Top 10 Customers" sheetId="4" r:id="rId2"/>
-    <sheet name="Top 10 Products" sheetId="5" r:id="rId3"/>
+    <sheet name="Monthly Sales" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Top 10 Customers" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Top 10 Products" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="Overview" sheetId="8" r:id="rId4"/>
-    <sheet name="KPI Pivots" sheetId="9" r:id="rId5"/>
-    <sheet name="WeekDay" sheetId="25" r:id="rId6"/>
-    <sheet name="order_lines" sheetId="1" r:id="rId7"/>
-    <sheet name="WeekDay Pattern" sheetId="11" r:id="rId8"/>
-    <sheet name="Product Performance" sheetId="19" r:id="rId9"/>
-    <sheet name="QA" sheetId="20" r:id="rId10"/>
+    <sheet name="KPI Pivots" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="WeekDay" sheetId="25" state="hidden" r:id="rId6"/>
+    <sheet name="order_lines" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="WeekDay Pattern" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="Product Performance" sheetId="19" state="hidden" r:id="rId9"/>
+    <sheet name="QA" sheetId="20" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_excelnorthwindanalysis.xlsxFactSales1" hidden="1">FactSales[]</definedName>
@@ -1474,7 +1475,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel northwind analysis.xlsx]Top 10 Customers!Top Customers</c:name>
+    <c:name>[Excel northwind analysis.xlsx]Top 10 Customers!Top Customers</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1992,7 +1993,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel northwind analysis.xlsx]Top 10 Products!Top Products</c:name>
+    <c:name>[Excel northwind analysis.xlsx]Top 10 Products!Top Products</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2590,7 +2591,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel northwind analysis.xlsx]Monthly Sales!PivotTable1</c:name>
+    <c:name>[Excel northwind analysis.xlsx]Monthly Sales!PivotTable1</c:name>
     <c:fmtId val="43"/>
   </c:pivotSource>
   <c:chart>
@@ -3460,7 +3461,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel northwind analysis.xlsx]WeekDay!ptWeekDay</c:name>
+    <c:name>[Excel northwind analysis.xlsx]WeekDay!ptWeekDay</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -9137,7 +9138,7 @@
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9229,7 +9230,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9379,7 +9380,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="1" sqref="A1:B1 A3:B7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9502,7 +9503,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9740,7 +9741,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9782,6 +9783,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" pivotTables="0"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9805,7 +9807,7 @@
   <dimension ref="A3:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,7 +9845,7 @@
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9934,7 +9936,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12379,7 +12381,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,7 +12491,7 @@
   <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
